--- a/biology/Zoologie/Cirrhilabrus/Cirrhilabrus.xlsx
+++ b/biology/Zoologie/Cirrhilabrus/Cirrhilabrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirrhilabrus est un genre de poissons de la famille des Labridae communément connu sous le nom de vieille. Ces poissons sont réputés en aquariophilie pour leurs couleurs très chatoyantes et leur comportement plutôt paisible, même si certains mâles sont agressifs envers leur congénères.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus petit représentant est Cirrhilabrus rubriventralis qui mesure environ 7 cm tandis que le plus grand, Cirrhilabrus cyanopleura atteint environ 15 cm. Mais la plupart des espèces mesure entre 10 et 13 cm.
 Toutes les espèces de Cirrhilabrus sont caractérisées par trois paires de canines sur la mâchoire supérieure et une paire de canines en saillie sur la mâchoire inférieure. Les petites dents coniques sont situées sur les côtés de la mâchoire et les dents grandes et recourbées à l'arrière sous forme de trois paires (Springer &amp; Randall, 1974). Ces dents aident le poisson à capturer, saisir, et pulvériser sa principale source de nourriture : le zooplancton. 
@@ -546,7 +560,9 @@
           <t>Environnement, distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson vit dans les récifs entre 3 mètres et 43 mètres de profondeur, dans des eaux dont la température va de 24 à 28 °C.
 On le rencontre dans l'océan Indien, nord de la mer Rouge, Oman et le Sri Lanka
@@ -578,7 +594,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cirrhilabrus a été nommé en 1850 avec la description de Cirrhilabrus temmincki par  Temminck ce qui lui a valu son nom, suivie en 1853 par la description de Cirrhilabrus solorensis. En 1957, Cirrhilabrus a été révisé pour contenir deux espèces, Cirrhilabrus temminckii et Cirrhilabrus cyanopleura. Cirrhilabrus solorensis a été considéré comme un synonyme de C. cyanopleura et l'orthographe de C. temmincki corrigée en C. temminkii. Au fil des années, de nombreuses autres espèces ont été identifiées et nos connaissances sur ce genre n'ont cessé d'augmenter. Les années 1980 se sont avérées être les plus excitantes de la décennie pour les amateurs de ces poissons, avec 14 nouvelles espèces décrites. Cirrhilabrus solorensis fut confondu avec un  ichtyologiste et est actuellement membre de 40 espèces décrites (Randall, comm. pers.). Bien qu'il s'agissait du deuxième Cirrhilabrus décrit, la plupart des chercheurs ont considéré cette espèce comme un synonyme de Cirrhilabrus solorensis.
 </t>
@@ -609,9 +627,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (26 avril 2014)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (26 avril 2014) :
 Cirrhilabrus adornatus Randall &amp; Kunzmann, 1998
 Cirrhilabrus aurantidorsalis Allen &amp; Kuiter, 1999
 Cirrhilabrus balteatus Randall, 1988
